--- a/予定表/予定表.xlsx
+++ b/予定表/予定表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honoh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honoh\Desktop\sample14_階層アニメーション_熊\予定表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D2047-3726-4A69-9846-4A41B00F946D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7874DA3F-1968-47E7-A56E-4A029B51F8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7596DEB0-4111-489A-BA7D-F26EC7834F7A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>課題名</t>
     <rPh sb="0" eb="2">
@@ -401,6 +401,21 @@
     <rPh sb="3" eb="5">
       <t>キョウシツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>843 7436 6535</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筆記用具・ノートPC</t>
+    <rPh sb="0" eb="4">
+      <t>ヒッキヨウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LANケーブル・イヤホン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -408,7 +423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +436,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -481,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -554,13 +577,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,9 +654,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -651,26 +693,47 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4026D-9435-4563-A390-D8DE1480B469}">
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1056,44 +1119,44 @@
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="11.3984375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
     <col min="6" max="6" width="14.8984375" customWidth="1"/>
     <col min="8" max="8" width="13.09765625" customWidth="1"/>
     <col min="9" max="9" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1102,40 +1165,40 @@
       <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="10"/>
-      <c r="C4" s="35"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="9"/>
-      <c r="C5" s="36"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1153,139 +1216,159 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="35">
         <v>0.375</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="17" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="36">
         <v>0.76041666666666663</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="1" t="s">
+      <c r="E8" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="17" t="s">
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="41">
+        <v>165571</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="17" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="12" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C13" s="26">
         <v>44914</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="13"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="13"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="14"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="14"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/予定表/予定表.xlsx
+++ b/予定表/予定表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honoh\Desktop\sample14_階層アニメーション_熊\予定表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honoh\Desktop\share_Bear_mabataki\予定表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7874DA3F-1968-47E7-A56E-4A029B51F8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2514D940-E165-46D3-B48E-89431E251A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7596DEB0-4111-489A-BA7D-F26EC7834F7A}"/>
+    <workbookView xWindow="2436" yWindow="5628" windowWidth="20028" windowHeight="8880" activeTab="1" xr2:uid="{7596DEB0-4111-489A-BA7D-F26EC7834F7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>課題名</t>
     <rPh sb="0" eb="2">
@@ -416,6 +416,124 @@
   </si>
   <si>
     <t>LANケーブル・イヤホン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社Cygames</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月20日(火)</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月19日(月)</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18:00～20:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月10日(土)</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2限</t>
+    <rPh sb="3" eb="4">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>967 0457 3876</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPA修了試験</t>
+    <rPh sb="3" eb="7">
+      <t>シュウリョウシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月11日(日)</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8:50 校舎開場</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筆記用具・学生証</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社コーエーテクモホールディングス</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月22日(木)</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14:00～16:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筆記用具</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -605,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +852,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,16 +1238,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4026D-9435-4563-A390-D8DE1480B469}">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="36.8984375" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
     <col min="6" max="6" width="14.8984375" customWidth="1"/>
@@ -1272,7 +1402,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -1284,87 +1414,169 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="16" t="s">
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="14">
+        <v>574823</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="1" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="16" t="s">
+    <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="26">
-        <v>44914</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="13"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="13" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="13"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="14"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="14" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="14"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/予定表/予定表.xlsx
+++ b/予定表/予定表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honoh\Desktop\share_Bear_mabataki\予定表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2514D940-E165-46D3-B48E-89431E251A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FC7D71-9A6B-44AB-8664-E98B0004EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="5628" windowWidth="20028" windowHeight="8880" activeTab="1" xr2:uid="{7596DEB0-4111-489A-BA7D-F26EC7834F7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7596DEB0-4111-489A-BA7D-F26EC7834F7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4026D-9435-4563-A390-D8DE1480B469}">
   <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/予定表/予定表.xlsx
+++ b/予定表/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honoh\Desktop\share_Bear_mabataki\予定表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FC7D71-9A6B-44AB-8664-E98B0004EF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D7A241-9AD7-4422-9016-40C4AE880827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7596DEB0-4111-489A-BA7D-F26EC7834F7A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>課題名</t>
     <rPh sb="0" eb="2">
@@ -534,6 +534,16 @@
   </si>
   <si>
     <t>筆記用具</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bホール、履歴書必要なし</t>
+    <rPh sb="5" eb="8">
+      <t>リレキショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -566,7 +576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +631,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -723,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,11 +749,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -748,121 +761,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,7 +1223,7 @@
   <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1228,7 +1259,6 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1238,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4026D-9435-4563-A390-D8DE1480B469}">
-  <dimension ref="B1:J20"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1250,235 +1280,239 @@
     <col min="3" max="3" width="13.09765625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
-    <col min="6" max="6" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" customWidth="1"/>
     <col min="8" max="8" width="13.09765625" customWidth="1"/>
     <col min="9" max="9" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="10"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="9"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="29" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="7" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="36">
         <v>0.375</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="40">
         <v>0.76041666666666663</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="39" t="s">
+      <c r="H8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="45">
         <v>165571</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="13" t="s">
+      <c r="G9" s="44"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="44" t="s">
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="14">
+      <c r="G11" s="26"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="49">
         <v>574823</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="43" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="16" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="9">
+        <v>95969699089</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="7"/>
@@ -1486,97 +1520,135 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="11">
+        <v>922683</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="51">
+        <v>92989473605</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="13"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="10">
+        <v>747268</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="14"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="43" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="10"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="11"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="43" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C23" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/予定表/予定表.xlsx
+++ b/予定表/予定表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honoh\Desktop\share_Bear_mabataki\予定表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D7A241-9AD7-4422-9016-40C4AE880827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96A174D-02E1-4193-BF7C-F001ED8E1559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7596DEB0-4111-489A-BA7D-F26EC7834F7A}"/>
+    <workbookView xWindow="1236" yWindow="1044" windowWidth="20028" windowHeight="8880" activeTab="1" xr2:uid="{7596DEB0-4111-489A-BA7D-F26EC7834F7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>課題名</t>
     <rPh sb="0" eb="2">
@@ -543,6 +543,30 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VOS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6限</t>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終わったら学内企業説明会</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ガクナ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セツメイカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -739,37 +763,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -806,18 +818,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -893,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,13 +1256,13 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1268,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4026D-9435-4563-A390-D8DE1480B469}">
-  <dimension ref="B1:I23"/>
+  <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1287,326 +1293,322 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="30">
         <v>0.375</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="34">
         <v>0.76041666666666663</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="44" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="39">
         <v>165571</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="38"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="26"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="49">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="43">
         <v>574823</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="32"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="32"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="22">
         <v>95969699089</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="11">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="43">
         <v>922683</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="10" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="51">
+      <c r="E17" s="32"/>
+      <c r="F17" s="45">
         <v>92989473605</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="10">
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="25">
         <v>747268</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="10" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="10"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="6"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="11"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1615,40 +1617,52 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="12" t="s">
+    <row r="24" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/予定表/予定表.xlsx
+++ b/予定表/予定表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96A174D-02E1-4193-BF7C-F001ED8E1559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A26171-A0AE-4AA8-B862-3EC6DE928E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1236" yWindow="1044" windowWidth="20028" windowHeight="8880" activeTab="1" xr2:uid="{7596DEB0-4111-489A-BA7D-F26EC7834F7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7596DEB0-4111-489A-BA7D-F26EC7834F7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>課題名</t>
     <rPh sb="0" eb="2">
@@ -568,6 +568,53 @@
     <rPh sb="9" eb="12">
       <t>セツメイカイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>988 9349 9734</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KT3594</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社サイバーエージェント</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月23日(金)</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>986 1963 1390</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社MIXI</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10:00～11:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14:00～15:30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -662,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -757,13 +804,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,12 +857,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,6 +964,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4026D-9435-4563-A390-D8DE1480B469}">
-  <dimension ref="B1:I24"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1293,310 +1389,326 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="28">
         <v>0.375</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>0.76041666666666663</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="38" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="37">
         <v>165571</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="32"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="20"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="43">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="41">
         <v>574823</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>95969699089</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20" t="s">
+      <c r="H14" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="43">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="41">
         <v>922683</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="45">
+      <c r="E17" s="30"/>
+      <c r="F17" s="43">
         <v>92989473605</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="H17" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="23">
         <v>747268</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1604,65 +1716,133 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="6"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+    <row r="21" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="7"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="7"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="8" t="s">
+      <c r="B22" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C22" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D22" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="46" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="46"/>
+    </row>
     <row r="24" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="7">
+        <v>342826</v>
+      </c>
+      <c r="G26" s="54"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="52"/>
+      <c r="I27" s="46"/>
+    </row>
+    <row r="28" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="47"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/予定表/予定表.xlsx
+++ b/予定表/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\honoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A26171-A0AE-4AA8-B862-3EC6DE928E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811198C6-D094-4A5C-97E7-EFA1C6EF389A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7596DEB0-4111-489A-BA7D-F26EC7834F7A}"/>
   </bookViews>
@@ -704,7 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,18 +843,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,11 +869,29 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -965,37 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4026D-9435-4563-A390-D8DE1480B469}">
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1389,460 +1365,460 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="30">
         <v>0.375</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="34">
         <v>0.76041666666666663</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="36" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="39">
         <v>165571</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="30"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="41">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="43">
         <v>574823</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="24"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="24"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="22">
         <v>95969699089</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="41">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="43">
         <v>922683</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="24"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="43">
+      <c r="E17" s="32"/>
+      <c r="F17" s="45">
         <v>92989473605</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="23">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="25">
         <v>747268</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="6"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="7"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
     </row>
     <row r="22" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="44" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="46"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="46"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="7">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="3">
         <v>342826</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="44" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="46"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="47"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="47"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
